--- a/Code/Matlab/Analysis/DampedLeg_Krnacik/Haonan/3DPrinted_Torsion_Spring/torqueTest/data/SpringStartIndex.xlsx
+++ b/Code/Matlab/Analysis/DampedLeg_Krnacik/Haonan/3DPrinted_Torsion_Spring/torqueTest/data/SpringStartIndex.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Quadruped_Robot\Code\Matlab\Analysis\DampedLeg_Krnacik\Haonan\3DPrinted_Torsion_Spring\torqueTest\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\Code\Matlab\Analysis\DampedLeg_Krnacik\Haonan\3DPrinted_Torsion_Spring\torqueTest\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCBB7C5-5B94-4B63-82AE-7717F9DDB67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3739EF4-C25D-46D5-8836-70916CB74879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28905" yWindow="-15" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2L2LT4ST_37T" sheetId="1" r:id="rId1"/>
@@ -410,13 +410,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -446,8 +446,11 @@
       <c r="E2">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F2">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>6</v>
@@ -461,8 +464,11 @@
       <c r="E3">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F3">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>7</v>
@@ -476,8 +482,11 @@
       <c r="E4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F4">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>8</v>
@@ -491,8 +500,11 @@
       <c r="E5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>9</v>
@@ -506,8 +518,11 @@
       <c r="E6">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F6">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>10</v>
@@ -521,8 +536,11 @@
       <c r="E7">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>11</v>
@@ -536,8 +554,11 @@
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>12</v>
@@ -551,8 +572,11 @@
       <c r="E9">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -568,8 +592,11 @@
       <c r="E10">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F10">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>6</v>
@@ -583,8 +610,11 @@
       <c r="E11">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
         <v>7</v>
@@ -598,8 +628,11 @@
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
         <v>8</v>
@@ -613,8 +646,11 @@
       <c r="E13">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F13">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
         <v>9</v>
@@ -628,8 +664,11 @@
       <c r="E14">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F14">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>10</v>
@@ -643,8 +682,11 @@
       <c r="E15">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
         <v>11</v>
@@ -658,8 +700,11 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
         <v>12</v>
@@ -672,6 +717,9 @@
       </c>
       <c r="E17">
         <v>0.18</v>
+      </c>
+      <c r="F17">
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
@@ -689,12 +737,12 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>1</v>
       </c>
@@ -708,104 +756,296 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>0.16</v>
+      </c>
+      <c r="D2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E2">
+        <v>0.37</v>
+      </c>
+      <c r="F2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.36</v>
+      </c>
+      <c r="F3">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>0.21</v>
+      </c>
+      <c r="D4">
+        <v>0.22</v>
+      </c>
+      <c r="E4">
+        <v>0.26</v>
+      </c>
+      <c r="F4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>0.12</v>
+      </c>
+      <c r="D5">
+        <v>0.32</v>
+      </c>
+      <c r="E5">
+        <v>0.02</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>0.12</v>
+      </c>
+      <c r="D6">
+        <v>0.08</v>
+      </c>
+      <c r="E6">
+        <v>0.2</v>
+      </c>
+      <c r="F6">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.09</v>
+      </c>
+      <c r="E7">
+        <v>0.18</v>
+      </c>
+      <c r="F7">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>0.09</v>
+      </c>
+      <c r="D8">
+        <v>0.25</v>
+      </c>
+      <c r="E8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F8">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>0.12</v>
+      </c>
+      <c r="D9">
+        <v>0.17</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>0.11</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.05</v>
+      </c>
+      <c r="F10">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>0.17</v>
+      </c>
+      <c r="D11">
+        <v>0.25</v>
+      </c>
+      <c r="E11">
+        <v>0.15</v>
+      </c>
+      <c r="F11">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>0.03</v>
+      </c>
+      <c r="D12">
+        <v>0.17</v>
+      </c>
+      <c r="E12">
+        <v>0.22</v>
+      </c>
+      <c r="F12">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <v>0.17</v>
+      </c>
+      <c r="D13">
+        <v>0.05</v>
+      </c>
+      <c r="E13">
+        <v>0.2</v>
+      </c>
+      <c r="F13">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <v>0.11</v>
+      </c>
+      <c r="D14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <v>0.25</v>
+      </c>
+      <c r="D15">
+        <v>0.26</v>
+      </c>
+      <c r="E15">
+        <v>0.18</v>
+      </c>
+      <c r="F15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <v>0.27</v>
+      </c>
+      <c r="D16">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E16">
+        <v>0.2</v>
+      </c>
+      <c r="F16">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
         <v>12</v>
+      </c>
+      <c r="C17">
+        <v>0.06</v>
+      </c>
+      <c r="D17">
+        <v>0.54</v>
+      </c>
+      <c r="E17">
+        <v>0.05</v>
+      </c>
+      <c r="F17">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
@@ -821,13 +1061,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B95A850-7988-4D99-B418-55343BCF56E6}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>2</v>
       </c>
@@ -841,7 +1081,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -849,49 +1089,49 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -899,43 +1139,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
         <v>12</v>
@@ -958,9 +1198,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>17</v>
       </c>
@@ -974,7 +1214,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -982,49 +1222,49 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1032,43 +1272,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
         <v>12</v>

--- a/Code/Matlab/Analysis/DampedLeg_Krnacik/Haonan/3DPrinted_Torsion_Spring/torqueTest/data/SpringStartIndex.xlsx
+++ b/Code/Matlab/Analysis/DampedLeg_Krnacik/Haonan/3DPrinted_Torsion_Spring/torqueTest/data/SpringStartIndex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\Code\Matlab\Analysis\DampedLeg_Krnacik\Haonan\3DPrinted_Torsion_Spring\torqueTest\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3739EF4-C25D-46D5-8836-70916CB74879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25C896E-5B5E-4B9E-8280-17ACD5E58000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="-15" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2L2LT4ST_37T" sheetId="1" r:id="rId1"/>
@@ -1062,7 +1062,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,48 +1088,144 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2">
+        <v>0.09</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.17</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="C3">
+        <v>0.19</v>
+      </c>
+      <c r="D3">
+        <v>0.36</v>
+      </c>
+      <c r="E3">
+        <v>0.17</v>
+      </c>
+      <c r="F3">
+        <v>0.33500000000000002</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4">
+        <v>0.19</v>
+      </c>
+      <c r="D4">
+        <v>0.17</v>
+      </c>
+      <c r="E4">
+        <v>0.21</v>
+      </c>
+      <c r="F4">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="C5">
+        <v>0.09</v>
+      </c>
+      <c r="D5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>9</v>
       </c>
+      <c r="C6">
+        <v>0.15</v>
+      </c>
+      <c r="D6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="C7">
+        <v>0.11</v>
+      </c>
+      <c r="D7">
+        <v>0.17</v>
+      </c>
+      <c r="E7">
+        <v>0.12</v>
+      </c>
+      <c r="F7">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>11</v>
       </c>
+      <c r="C8">
+        <v>0.18</v>
+      </c>
+      <c r="D8">
+        <v>0.16</v>
+      </c>
+      <c r="E8">
+        <v>0.12</v>
+      </c>
+      <c r="F8">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
+      <c r="C9">
+        <v>0.17</v>
+      </c>
+      <c r="D9">
+        <v>0.18</v>
+      </c>
+      <c r="E9">
+        <v>0.21</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1137,6 +1233,18 @@
       </c>
       <c r="B10" t="s">
         <v>5</v>
+      </c>
+      <c r="C10">
+        <v>0.12</v>
+      </c>
+      <c r="D10">
+        <v>0.02</v>
+      </c>
+      <c r="E10">
+        <v>0.19</v>
+      </c>
+      <c r="F10">
+        <v>0.16</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1144,41 +1252,125 @@
       <c r="B11" t="s">
         <v>6</v>
       </c>
+      <c r="C11">
+        <v>0.1</v>
+      </c>
+      <c r="D11">
+        <v>0.17</v>
+      </c>
+      <c r="E11">
+        <v>0.11</v>
+      </c>
+      <c r="F11">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
         <v>7</v>
       </c>
+      <c r="C12">
+        <v>0.27</v>
+      </c>
+      <c r="D12">
+        <v>0.15</v>
+      </c>
+      <c r="E12">
+        <v>0.1</v>
+      </c>
+      <c r="F12">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
         <v>8</v>
       </c>
+      <c r="C13">
+        <v>0.18</v>
+      </c>
+      <c r="D13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.21</v>
+      </c>
+      <c r="F13">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
         <v>9</v>
       </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.18</v>
+      </c>
+      <c r="E14">
+        <v>0.23</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>10</v>
       </c>
+      <c r="C15">
+        <v>0.13</v>
+      </c>
+      <c r="D15">
+        <v>0.12</v>
+      </c>
+      <c r="E15">
+        <v>0.13</v>
+      </c>
+      <c r="F15">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>0.23</v>
+      </c>
+      <c r="D16">
+        <v>0.11</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
         <v>12</v>
+      </c>
+      <c r="C17">
+        <v>0.23</v>
+      </c>
+      <c r="D17">
+        <v>0.15</v>
+      </c>
+      <c r="E17">
+        <v>0.16</v>
+      </c>
+      <c r="F17">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Matlab/Analysis/DampedLeg_Krnacik/Haonan/3DPrinted_Torsion_Spring/torqueTest/data/SpringStartIndex.xlsx
+++ b/Code/Matlab/Analysis/DampedLeg_Krnacik/Haonan/3DPrinted_Torsion_Spring/torqueTest/data/SpringStartIndex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\Code\Matlab\Analysis\DampedLeg_Krnacik\Haonan\3DPrinted_Torsion_Spring\torqueTest\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25C896E-5B5E-4B9E-8280-17ACD5E58000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B793F4F-1147-43BD-8D97-F5BB936DE8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2L2LT4ST_37T" sheetId="1" r:id="rId1"/>
@@ -410,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,13 +495,13 @@
         <v>0.03</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E5">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -552,7 +552,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F8">
         <v>0.17</v>
@@ -623,10 +623,10 @@
         <v>0.13</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F12">
         <v>0.18</v>
@@ -659,7 +659,7 @@
         <v>0.18</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E14">
         <v>0.17</v>
@@ -695,10 +695,10 @@
         <v>0.2</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F16">
         <v>0.26</v>
@@ -737,7 +737,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,10 +782,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E3">
         <v>0.36</v>
@@ -827,7 +827,7 @@
         <v>0.02</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -854,7 +854,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D7">
         <v>0.09</v>
@@ -896,7 +896,7 @@
         <v>0.17</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F9">
         <v>0.08</v>
@@ -913,7 +913,7 @@
         <v>0.11</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E10">
         <v>0.05</v>
@@ -1061,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B95A850-7988-4D99-B418-55343BCF56E6}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,13 +1092,13 @@
         <v>0.09</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E2">
         <v>0.17</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1167,7 +1167,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F6">
         <v>0.16</v>
@@ -1224,7 +1224,7 @@
         <v>0.21</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1307,7 +1307,7 @@
         <v>9</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D14">
         <v>0.18</v>
@@ -1316,7 +1316,7 @@
         <v>0.23</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1349,10 +1349,10 @@
         <v>0.11</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">

--- a/Code/Matlab/Analysis/DampedLeg_Krnacik/Haonan/3DPrinted_Torsion_Spring/torqueTest/data/SpringStartIndex.xlsx
+++ b/Code/Matlab/Analysis/DampedLeg_Krnacik/Haonan/3DPrinted_Torsion_Spring/torqueTest/data/SpringStartIndex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\Code\Matlab\Analysis\DampedLeg_Krnacik\Haonan\3DPrinted_Torsion_Spring\torqueTest\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B793F4F-1147-43BD-8D97-F5BB936DE8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F89B47E-6539-4F66-BFB7-191CBFFFB674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-135" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2L2LT4ST_37T" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,41 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Haonan</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{9E1E6ADE-CFC5-4B65-B5D9-54FC4B9B043D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Haonan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+re-do with 250Nmm
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -88,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,13 +137,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -123,11 +183,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,7 +475,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,16 +501,16 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>0.04</v>
       </c>
-      <c r="D2">
-        <v>0.01</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E2" s="3">
         <v>0.15</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>0.43</v>
       </c>
     </row>
@@ -455,16 +519,16 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>0.1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>0.23</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>0.06</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>0.42</v>
       </c>
     </row>
@@ -473,16 +537,16 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>0.18</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>0.1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>0.26</v>
       </c>
     </row>
@@ -491,16 +555,16 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>0.03</v>
       </c>
-      <c r="D5">
-        <v>0.01</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>0.01</v>
       </c>
     </row>
@@ -509,16 +573,16 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>0.08</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>0.06</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>0.09</v>
       </c>
     </row>
@@ -527,16 +591,16 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>0.03</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>0.06</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>0.2</v>
       </c>
     </row>
@@ -545,16 +609,16 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>0.17</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E8">
-        <v>0.01</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="F8" s="3">
         <v>0.17</v>
       </c>
     </row>
@@ -563,16 +627,16 @@
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>0.12</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>0.16</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>0.15</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>0.17</v>
       </c>
     </row>
@@ -583,16 +647,16 @@
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>0.1</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>0.04</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>0.17</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>0.13</v>
       </c>
     </row>
@@ -601,16 +665,16 @@
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>0.15</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>0.04</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>0.22</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>0.22</v>
       </c>
     </row>
@@ -619,16 +683,16 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>0.13</v>
       </c>
-      <c r="D12">
-        <v>0.01</v>
-      </c>
-      <c r="E12">
-        <v>0.01</v>
-      </c>
-      <c r="F12">
+      <c r="D12" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="F12" s="3">
         <v>0.18</v>
       </c>
     </row>
@@ -637,16 +701,16 @@
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13">
-        <v>0.01</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D13" s="3">
         <v>0.09</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -655,16 +719,16 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>0.18</v>
       </c>
-      <c r="D14">
-        <v>0.01</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E14" s="3">
         <v>0.17</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>0.08</v>
       </c>
     </row>
@@ -673,16 +737,16 @@
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>0.18</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>0.04</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>0.23</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>0.2</v>
       </c>
     </row>
@@ -691,16 +755,16 @@
       <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>0.2</v>
       </c>
-      <c r="D16">
-        <v>0.01</v>
-      </c>
-      <c r="E16">
-        <v>0.01</v>
-      </c>
-      <c r="F16">
+      <c r="D16" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="F16" s="3">
         <v>0.26</v>
       </c>
     </row>
@@ -709,16 +773,16 @@
       <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>0.13</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>0.04</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>0.18</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>0.17</v>
       </c>
     </row>
@@ -737,7 +801,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,16 +827,16 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>0.16</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>0.37</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>0.3</v>
       </c>
     </row>
@@ -781,16 +845,16 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>0.01</v>
-      </c>
-      <c r="D3">
-        <v>0.01</v>
-      </c>
-      <c r="E3">
+      <c r="C3" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E3" s="3">
         <v>0.36</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>0.09</v>
       </c>
     </row>
@@ -799,16 +863,16 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>0.21</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>0.22</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>0.26</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>0.15</v>
       </c>
     </row>
@@ -817,16 +881,16 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>0.12</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>0.32</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>0.02</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>0.01</v>
       </c>
     </row>
@@ -835,16 +899,16 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>0.12</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>0.08</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>0.2</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>0.22</v>
       </c>
     </row>
@@ -853,16 +917,16 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
-        <v>0.01</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="D7" s="3">
         <v>0.09</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>0.18</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>0.18</v>
       </c>
     </row>
@@ -871,16 +935,16 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>0.09</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>0.25</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>0.21</v>
       </c>
     </row>
@@ -889,16 +953,16 @@
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>0.12</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>0.17</v>
       </c>
-      <c r="E9">
-        <v>0.01</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F9" s="3">
         <v>0.08</v>
       </c>
     </row>
@@ -909,16 +973,16 @@
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>0.11</v>
       </c>
-      <c r="D10">
-        <v>0.01</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="E10" s="3">
         <v>0.05</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>0.18</v>
       </c>
     </row>
@@ -927,16 +991,16 @@
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>0.17</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>0.25</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>0.15</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>0.18</v>
       </c>
     </row>
@@ -945,16 +1009,16 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>0.03</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>0.17</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>0.22</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>0.34</v>
       </c>
     </row>
@@ -963,16 +1027,16 @@
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>0.17</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>0.05</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>0.2</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>0.15</v>
       </c>
     </row>
@@ -981,16 +1045,16 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>0.11</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>0.36</v>
       </c>
     </row>
@@ -999,16 +1063,16 @@
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>0.25</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>0.26</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>0.18</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>0.2</v>
       </c>
     </row>
@@ -1017,16 +1081,16 @@
       <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>0.27</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>0.2</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>0.11</v>
       </c>
     </row>
@@ -1035,16 +1099,16 @@
       <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>0.06</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>0.54</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>0.05</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>0.04</v>
       </c>
     </row>
@@ -1058,11 +1122,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B95A850-7988-4D99-B418-55343BCF56E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B95A850-7988-4D99-B418-55343BCF56E6}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,7 +1141,7 @@
       <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1088,16 +1152,16 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>0.09</v>
       </c>
-      <c r="D2">
-        <v>0.01</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E2" s="3">
         <v>0.17</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="5">
         <v>0.01</v>
       </c>
     </row>
@@ -1106,16 +1170,16 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>0.19</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>0.36</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>0.17</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="5">
         <v>0.33500000000000002</v>
       </c>
     </row>
@@ -1124,16 +1188,16 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>0.19</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>0.17</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>0.21</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>0.04</v>
       </c>
     </row>
@@ -1142,16 +1206,16 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>0.09</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>0.41</v>
       </c>
     </row>
@@ -1160,16 +1224,16 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>0.15</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E6">
-        <v>0.01</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="5">
         <v>0.16</v>
       </c>
     </row>
@@ -1178,16 +1242,16 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>0.11</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>0.17</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>0.12</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <v>0.24</v>
       </c>
     </row>
@@ -1196,16 +1260,16 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>0.18</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>0.16</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>0.12</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <v>0.13</v>
       </c>
     </row>
@@ -1214,16 +1278,16 @@
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>0.17</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>0.18</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>0.21</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <v>0.01</v>
       </c>
     </row>
@@ -1234,16 +1298,16 @@
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>0.12</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>0.02</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>0.19</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <v>0.16</v>
       </c>
     </row>
@@ -1252,16 +1316,16 @@
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>0.1</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>0.17</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>0.11</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <v>0.15</v>
       </c>
     </row>
@@ -1270,16 +1334,16 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>0.27</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>0.15</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>0.1</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="5">
         <v>0.11</v>
       </c>
     </row>
@@ -1288,16 +1352,16 @@
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>0.18</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>0.21</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="5">
         <v>0.27</v>
       </c>
     </row>
@@ -1306,16 +1370,16 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14">
-        <v>0.01</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D14" s="3">
         <v>0.18</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>0.23</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="5">
         <v>0.01</v>
       </c>
     </row>
@@ -1324,16 +1388,16 @@
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>0.13</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>0.12</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>0.13</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="5">
         <v>0.27</v>
       </c>
     </row>
@@ -1342,16 +1406,16 @@
       <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>0.23</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>0.11</v>
       </c>
-      <c r="E16">
-        <v>0.01</v>
-      </c>
-      <c r="F16">
+      <c r="E16" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="F16" s="5">
         <v>0.01</v>
       </c>
     </row>
@@ -1360,16 +1424,16 @@
       <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>0.23</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>0.15</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>0.16</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="5">
         <v>0.75</v>
       </c>
     </row>
@@ -1379,6 +1443,7 @@
     <mergeCell ref="A10:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1387,7 +1452,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F17" sqref="C2:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,48 +1478,144 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="C5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>9</v>
       </c>
+      <c r="C6" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="C7" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>11</v>
       </c>
+      <c r="C8" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
+      <c r="C9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1462,6 +1623,18 @@
       </c>
       <c r="B10" t="s">
         <v>5</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1469,41 +1642,125 @@
       <c r="B11" t="s">
         <v>6</v>
       </c>
+      <c r="C11" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
         <v>7</v>
       </c>
+      <c r="C12" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
         <v>8</v>
       </c>
+      <c r="C13" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
         <v>9</v>
       </c>
+      <c r="C14" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>10</v>
       </c>
+      <c r="C15" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
         <v>12</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.66</v>
       </c>
     </row>
   </sheetData>
